--- a/Data Penelitian/Pengujian Keempat/5Ghz/VisualisasiData4-(5Ghz).xlsx
+++ b/Data Penelitian/Pengujian Keempat/5Ghz/VisualisasiData4-(5Ghz).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan Firmansyah\Desktop\TES\Data Penelitian\Pengujian Keempat\5Ghz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB19338-EAAB-4A03-A1F8-6671378F25D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22423178-3A55-4B1D-AC8B-0AAF622B6FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3C1A04C-9372-4545-A9E6-98ACBC17DC40}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="1020" windowWidth="21600" windowHeight="11295" xr2:uid="{E3C1A04C-9372-4545-A9E6-98ACBC17DC40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5943,7 +5943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC04783-8983-41FB-874F-D304B1E277AA}">
   <dimension ref="C1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
